--- a/Tutoring50.xlsx
+++ b/Tutoring50.xlsx
@@ -21,30 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
-    <t>id_gen</t>
-  </si>
-  <si>
-    <t>price_gen</t>
-  </si>
-  <si>
-    <t>lesson_day_gen</t>
-  </si>
-  <si>
-    <t>lesson_dur_gen</t>
-  </si>
-  <si>
-    <t>lesson_start_tim</t>
-  </si>
-  <si>
-    <t>prep_tim</t>
-  </si>
-  <si>
-    <t>x_gen</t>
-  </si>
-  <si>
-    <t>y_gen</t>
-  </si>
-  <si>
     <t>saturday</t>
   </si>
   <si>
@@ -64,6 +40,30 @@
   </si>
   <si>
     <t>sunday</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Lesson_Day</t>
+  </si>
+  <si>
+    <t>Lesson_Duration</t>
+  </si>
+  <si>
+    <t>Lesson_Start_Time</t>
+  </si>
+  <si>
+    <t>Preparation_Time</t>
+  </si>
+  <si>
+    <t>X_</t>
+  </si>
+  <si>
+    <t>Y_</t>
   </si>
 </sst>
 </file>
@@ -384,566 +384,566 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H50"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="F2">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H2">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="H3">
-        <v>6.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G4">
-        <v>3.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H5">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G6">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="H6">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G7">
-        <v>10.5</v>
+        <v>5.2</v>
       </c>
       <c r="H7">
-        <v>3.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>9.3000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H8">
-        <v>0.2</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G9">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="H9">
-        <v>10.199999999999999</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G10">
-        <v>0.4</v>
+        <v>9.4</v>
       </c>
       <c r="H10">
-        <v>10.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H11">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G12">
-        <v>10.199999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12">
-        <v>5.0999999999999996</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H13">
-        <v>5.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G14">
-        <v>1.1000000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="H14">
-        <v>5.0999999999999996</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
+        <v>19.5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.2</v>
+      </c>
+      <c r="H15">
         <v>9.5</v>
-      </c>
-      <c r="F15">
-        <v>0.25</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G16">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>0.25</v>
       </c>
       <c r="G17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H17">
         <v>8.5</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E18">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G18">
-        <v>2.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.1000000000000001</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>0.4</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="H21">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -952,273 +952,273 @@
         <v>12.5</v>
       </c>
       <c r="F22">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G22">
-        <v>7.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H22">
-        <v>6.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G23">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H23">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="F24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="H24">
-        <v>9.4</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="F26">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G26">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="H26">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G27">
-        <v>9.3000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H27">
-        <v>0.2</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H28">
-        <v>10.199999999999999</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H29">
-        <v>10.199999999999999</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="F30">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G30">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="H30">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>50</v>
-      </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G31">
-        <v>10.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H31">
-        <v>5.0999999999999996</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G32">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H32">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1226,470 +1226,474 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="H33">
-        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="F34">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H34">
-        <v>3.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="F35">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G35">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="H35">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B36">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>8.1</v>
       </c>
       <c r="H37">
-        <v>8.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G38">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H38">
-        <v>2.2999999999999998</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E39">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <v>0.75</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="H39">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G40">
-        <v>0.4</v>
+        <v>6.4</v>
       </c>
       <c r="H40">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>10.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G42">
-        <v>3.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H42">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="F43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>10.4</v>
+        <v>6.4</v>
       </c>
       <c r="H43">
-        <v>0.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
         <v>10</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>15.5</v>
-      </c>
       <c r="F44">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G44">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H44">
-        <v>8.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G45">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H45">
-        <v>9.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G46">
-        <v>5.5</v>
+        <v>10.3</v>
       </c>
       <c r="H46">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="H47">
-        <v>6.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="F48">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G48">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H48">
-        <v>0.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="F49">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>4.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H49">
-        <v>9.1999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="H50">
-        <v>2.2000000000000002</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H50">
+    <sortCondition ref="C2:C50" customList="monday,tuesday,wednesday,thursday,friday,saturday,sunday"/>
+    <sortCondition ref="E2:E50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>